--- a/biology/Histoire de la zoologie et de la botanique/Alpheus_Spring_Packard/Alpheus_Spring_Packard.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alpheus_Spring_Packard/Alpheus_Spring_Packard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpheus Spring Packard est un zoologiste, spécialisé dans l’entomologie, et un géologue américain, né le 19 février 1839 à Brunswick dans le Maine et mort le 14 février 1905 à Providence.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Bowdoin College. Il étudie trois ans sous Louis Agassiz (1807-1873) à la Lawrence Science School et obtient en 1864 un Bachelor of Sciences à Harvard. Il fréquente également, à partir de 1864, l’École de médecine du Maine. Packard obtient en 1901 un Doctorate of Laws (LL.D.) honorifique.
 De 1864 à 1867, il est assistant chirurgien auprès des vétérans. Il se marie en octobre 1867 à Elizabeth Derby Walcott. De 1865 à 1866, il est le bibliothécaire et le conservateur de la Boston Society of Natural Sciences, conservateur de l’Essex Institute en 1866, conservateur puis directeur du Peabody Academy of Sciences de 1867 à 1878.
